--- a/Data/Alternative Data/PTM/TNBC Metadata.xlsx
+++ b/Data/Alternative Data/PTM/TNBC Metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin Chappell\Desktop\Byrum Lab\Breast Cancer Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin Chappell\Documents\GitHub\PTMViz\Data\Alternative Data\PTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF358A7-FF9B-410B-95A2-F285E97C6CC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A6005C-E68D-41C7-B868-CB25A0BB3F82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9465" yWindow="4890" windowWidth="13905" windowHeight="9750" xr2:uid="{17D075A5-0A31-4C95-9E41-88C806F69E17}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{17D075A5-0A31-4C95-9E41-88C806F69E17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,19 +36,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="8">
   <si>
-    <t>HCC</t>
-  </si>
-  <si>
     <t>HU</t>
   </si>
   <si>
     <t>NoTX</t>
-  </si>
-  <si>
-    <t>MCF</t>
-  </si>
-  <si>
-    <t>MDA</t>
   </si>
   <si>
     <t>HCC- Mutant BRCA TNBC Line</t>
@@ -55,6 +49,15 @@
   </si>
   <si>
     <t>MDA- Normal Control</t>
+  </si>
+  <si>
+    <t>Mu</t>
+  </si>
+  <si>
+    <t>Wt</t>
+  </si>
+  <si>
+    <t>Cnt</t>
   </si>
 </sst>
 </file>
@@ -409,7 +412,7 @@
   <dimension ref="B2:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,407 +422,407 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C30">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C31">
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C35">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C36">
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C37">
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
